--- a/biology/Botanique/Kartz_von_Kameke-Streckenthin/Kartz_von_Kameke-Streckenthin.xlsx
+++ b/biology/Botanique/Kartz_von_Kameke-Streckenthin/Kartz_von_Kameke-Streckenthin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kartz von Kameke-Streckenthin (né en 1866, mort en 1942) est un agriculteur, agronome et sélectionneur de pommes de terre allemand, qui est à l'origine de la culture de la pomme de terre en Poméranie orientale. Celle-ci s'est développée grâce à la création de la  variété 'Parnassia' (créée en 1913), qui a représenté un temps jusqu'à 30 % des emblavements de pommes de terre en Allemagne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1897 Kartz von Kameke-Streckenthin a repris la gestion de plusieurs propriétés de la famille dans le district de Köslin (actuellement Koszalin en Pologne). Il a agrandi le domaine familial à d'autres biens après la Première Guerre mondiale, portant sa superficie à environ 6000 hectares, dont 3000 hectares de terres arables.
 En 1900, Kartz von Kameke-Streckenthin a entrepris de réaliser la culture comparative de diverses variétés de pommes de terre. Dès 1906, la station d'essai fut transformée en station de sélection et l'exploitation effective a commencé à Streckenthin. C'est là qu'est née la variété 'Parnassia'.
@@ -546,7 +560,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'époux de Hedwig Gans, fille de l'industriel et mécène allemand Leo Gans. Le couple a quatre fils.
 </t>
